--- a/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,7</t>
+          <t>30,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,06</t>
+          <t>31,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,22</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,57</t>
+          <t>27,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,75</t>
+          <t>37,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,56</t>
+          <t>32,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,72</t>
+          <t>32,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,44</t>
+          <t>34,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,3</t>
+          <t>34,33</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,66</t>
+          <t>32,45</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>29,68</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,93</t>
+          <t>30,97</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,99; 31,42</t>
+          <t>28,57; 32,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,73; 32,54</t>
+          <t>28,83; 34,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,99</t>
+          <t>25,25; 28,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,13; 27,11</t>
+          <t>22,48; 31,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,28; 34,28</t>
+          <t>35,55; 38,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,26; 37,34</t>
+          <t>31,12; 34,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,28; 36,04</t>
+          <t>30,46; 33,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 32,63</t>
+          <t>29,69; 38,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,21; 32,42</t>
+          <t>33,07; 35,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 33,64</t>
+          <t>30,77; 33,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,14; 34,5</t>
+          <t>28,39; 31,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 29,91</t>
+          <t>27,73; 33,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,66</t>
+          <t>23,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,24</t>
+          <t>19,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,36</t>
+          <t>18,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>24,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,8</t>
+          <t>20,76</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,52</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,42</t>
+          <t>20,82</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>23,95</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,51</t>
+          <t>20,01</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,87</t>
+          <t>19,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,4</t>
+          <t>22,8; 24,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 19,51</t>
+          <t>17,93; 20,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,52</t>
+          <t>16,27; 17,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,03</t>
+          <t>17,06; 19,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 19,07</t>
+          <t>23,74; 25,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,49; 22,11</t>
+          <t>19,03; 23,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 20,87</t>
+          <t>16,42; 18,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 25,03</t>
+          <t>19,6; 22,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,01</t>
+          <t>23,4; 24,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 20,42</t>
+          <t>18,92; 21,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,02</t>
+          <t>16,56; 17,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 24,31</t>
+          <t>18,66; 20,46</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>19,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>17,02</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>16,27</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,24</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>15,39</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,43</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>15,78</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,39</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>18,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 17,11</t>
+          <t>18,14; 20,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 17,63</t>
+          <t>15,42; 18,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 18,8</t>
+          <t>13,48; 15,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,1</t>
+          <t>14,97; 17,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 15,87</t>
+          <t>17,4; 19,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 16,54</t>
+          <t>16,61; 19,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 18,52</t>
+          <t>13,41; 15,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,14</t>
+          <t>14,22; 16,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 16,19</t>
+          <t>18,03; 19,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 16,71</t>
+          <t>16,45; 18,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 18,37</t>
+          <t>13,69; 15,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 19,4</t>
+          <t>14,92; 16,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>23,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,87</t>
+          <t>20,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,95</t>
+          <t>18,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>24,93</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,85</t>
+          <t>22,34</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,37</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,44</t>
+          <t>20,89</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,41</t>
+          <t>24,21</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,91</t>
+          <t>21,31</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,49</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,72</t>
+          <t>19,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 20,87</t>
+          <t>22,85; 24,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 19,99</t>
+          <t>19,16; 20,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 21,17</t>
+          <t>17,24; 18,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,53; 23,47</t>
+          <t>17,9; 19,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,91; 21,25</t>
+          <t>24,34; 25,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 21,99</t>
+          <t>21,4; 23,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 23,09</t>
+          <t>18,37; 19,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,95; 24,89</t>
+          <t>19,87; 22,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 20,82</t>
+          <t>23,81; 24,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 20,65</t>
+          <t>20,68; 22,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 22,01</t>
+          <t>17,96; 18,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 24,05</t>
+          <t>19,21; 20,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio</t>
+          <t>Número de años residiendo en el domicilio (tasa de respuesta: 97,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,54</t>
+          <t>28,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,03</t>
+          <t>36,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,33</t>
+          <t>33,24</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 32,52</t>
+          <t>27,03; 30,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 34,18</t>
+          <t>28,85; 34,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,73</t>
+          <t>22,37; 32,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 38,53</t>
+          <t>34,79; 37,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,12; 34,83</t>
+          <t>31,06; 34,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 38,38</t>
+          <t>30,16; 38,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,07; 35,48</t>
+          <t>32,01; 34,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,98</t>
+          <t>30,79; 33,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,92</t>
+          <t>27,69; 34,01</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,45</t>
+          <t>21,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,47</t>
+          <t>23,31</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,95</t>
+          <t>22,51</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 24,18</t>
+          <t>21,07; 22,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 20,12</t>
+          <t>18,08; 20,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 19,48</t>
+          <t>17,08; 19,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,74; 25,24</t>
+          <t>22,57; 24,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 23,26</t>
+          <t>18,9; 23,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,6; 22,06</t>
+          <t>19,65; 22,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 24,39</t>
+          <t>22,03; 22,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 21,83</t>
+          <t>18,86; 22,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,46</t>
+          <t>18,7; 20,5</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>17,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,64</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 20,24</t>
+          <t>16,91; 18,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 18,69</t>
+          <t>15,34; 18,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 17,85</t>
+          <t>15,09; 17,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 19,04</t>
+          <t>16,44; 18,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 19,46</t>
+          <t>16,53; 19,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 16,65</t>
+          <t>14,22; 16,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 19,37</t>
+          <t>16,86; 18,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 18,69</t>
+          <t>16,41; 18,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 16,72</t>
+          <t>14,85; 16,72</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,44</t>
+          <t>21,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,93</t>
+          <t>23,39</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,21</t>
+          <t>22,52</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 24,03</t>
+          <t>21,06; 22,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 20,99</t>
+          <t>19,17; 20,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,95</t>
+          <t>17,97; 20,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 25,46</t>
+          <t>22,83; 23,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,4; 23,43</t>
+          <t>21,44; 23,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,87; 22,04</t>
+          <t>19,82; 22,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 24,61</t>
+          <t>22,17; 22,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 22,4</t>
+          <t>20,63; 22,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">

--- a/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29,81</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26,78</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>28,83</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>31,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>26,78</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,23</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>32,34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34,01</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>36,33</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32,91</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>32,08</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,01</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>31,41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,97</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>33,24</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>32,45</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>29,68</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,97</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27,04; 32,62</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22,37; 32,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 28,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>27,03; 30,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>28,85; 34,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>25,25; 28,74</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>22,37; 32,24</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>30,44; 34,22</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30,16; 38,17</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30,46; 33,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>34,79; 37,75</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 34,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>30,46; 33,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>30,16; 38,17</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>29,86; 32,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 34,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28,39; 31,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>32,01; 34,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>30,79; 33,93</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>28,39; 31,02</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>27,69; 34,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>18,4</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18,25</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,0</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>21,74</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>18,56</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,82</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,24</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>23,31</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>20,76</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>20,82</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>18,48</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,53</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,12</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>22,51</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>20,01</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,12</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>17,39; 19,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 19,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 17,8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>21,07; 22,42</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>18,08; 20,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,27; 17,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>17,08; 19,57</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>17,59; 19,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 22,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 18,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>22,57; 24,01</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>18,9; 23,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>16,42; 18,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>19,65; 22,22</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>17,78; 19,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,7; 20,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 17,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>22,03; 22,97</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>18,86; 22,09</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 17,64</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>18,7; 20,5</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,34</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16,27</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17,85</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,27</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>17,23</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15,39</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>17,22</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,28</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,39</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>16,78</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15,78</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>17,49</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>17,46</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,39</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>15,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>14,62; 18,05</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 17,73</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 15,51</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>16,91; 18,82</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 18,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>13,48; 15,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 17,73</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>15,99; 18,65</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 16,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 15,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>16,44; 18,06</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 19,41</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>13,41; 15,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>14,22; 16,7</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>15,81; 17,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 16,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 15,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>16,86; 18,09</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,41; 18,53</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,69; 15,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>14,85; 16,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>19,31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>21,56</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,89</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>21,08</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20,89</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,97</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>23,39</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>22,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,97</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20,89</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>20,21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,94</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,39</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>22,52</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>21,31</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>18,39</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>18,46; 20,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 20,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 18,36</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>21,06; 22,14</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>19,17; 20,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 18,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>17,97; 20,0</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>20,28; 21,89</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 22,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 19,56</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>22,83; 23,91</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>21,44; 23,59</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 19,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 22,08</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>19,61; 20,8</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 20,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 18,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>22,17; 22,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>20,63; 22,37</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>17,96; 18,82</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 20,66</t>
         </is>
       </c>
     </row>
